--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C44CFE-A8E2-44B9-A628-B3AF250F0ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
     <sheet name="Cerimonia Casamento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -172,12 +171,96 @@
   </si>
   <si>
     <t>Cinegrafista</t>
+  </si>
+  <si>
+    <t>Bolo</t>
+  </si>
+  <si>
+    <t>Doces</t>
+  </si>
+  <si>
+    <t>Obs.:</t>
+  </si>
+  <si>
+    <t>Mesa de doces</t>
+  </si>
+  <si>
+    <t>Aliança</t>
+  </si>
+  <si>
+    <t>Plaquinhas (Lá vem a Noiva e Jesus)</t>
+  </si>
+  <si>
+    <t>Pães</t>
+  </si>
+  <si>
+    <t>Carne (Carne maluca)</t>
+  </si>
+  <si>
+    <t>Janela Quarto</t>
+  </si>
+  <si>
+    <t>Porta Sala</t>
+  </si>
+  <si>
+    <t>Porta Quarto</t>
+  </si>
+  <si>
+    <t>Porta Banheiro</t>
+  </si>
+  <si>
+    <t>Pia Cozinha</t>
+  </si>
+  <si>
+    <t>Lavabo banheiro</t>
+  </si>
+  <si>
+    <t>Privada</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Salgados fritos</t>
+  </si>
+  <si>
+    <t>Assados</t>
+  </si>
+  <si>
+    <t>Total Gastos Casamento</t>
+  </si>
+  <si>
+    <t>Cento: Brigadeiro, beijinho e bem-casado</t>
+  </si>
+  <si>
+    <t>Cento: Salgados</t>
+  </si>
+  <si>
+    <t>Batatas 10 Kg</t>
+  </si>
+  <si>
+    <t>Pratos Bolo</t>
+  </si>
+  <si>
+    <t>Copos (de 100)</t>
+  </si>
+  <si>
+    <t>Pratos Batata e Salgados</t>
+  </si>
+  <si>
+    <t>Garfos Bolo</t>
+  </si>
+  <si>
+    <t>Guardanapo Pcte</t>
+  </si>
+  <si>
+    <t>Saquinho de pão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -269,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -286,13 +369,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -607,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L21"/>
+      <selection activeCell="L3" sqref="L3:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,22 +719,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -797,6 +884,9 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
@@ -825,6 +915,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
@@ -853,6 +946,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
@@ -881,6 +977,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
@@ -909,6 +1008,9 @@
         <f t="shared" si="0"/>
         <v>1357</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
@@ -936,6 +1038,9 @@
       <c r="D11" s="4">
         <v>1050</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -950,8 +1055,11 @@
         <v>26</v>
       </c>
       <c r="D12" s="4">
-        <f>B12*C12</f>
+        <f t="shared" ref="D12:D19" si="2">B12*C12</f>
         <v>338</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -967,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="4">
-        <f>B13*C13</f>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="K13" s="4"/>
@@ -984,7 +1092,7 @@
         <v>11.5</v>
       </c>
       <c r="D14" s="4">
-        <f>B14*C14</f>
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="K14" s="4"/>
@@ -1001,7 +1109,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="4">
-        <f>B15*C15</f>
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
       <c r="K15" s="4"/>
@@ -1018,7 +1126,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="4">
-        <f>B16*C16</f>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="K16" s="4"/>
@@ -1035,7 +1143,7 @@
         <v>103</v>
       </c>
       <c r="D17" s="4">
-        <f>B17*C17</f>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="K17" s="4"/>
@@ -1052,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="4">
-        <f>B18*C18</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K18" s="4"/>
@@ -1069,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="4">
-        <f>B19*C19</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K19" s="4"/>
@@ -1081,11 +1189,11 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="5">
         <f>SUM(D3:D19)</f>
         <v>5475</v>
@@ -1097,11 +1205,11 @@
         <f>SUM(G3:G11)</f>
         <v>845</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="6">
         <f>SUM(L3:L11)</f>
         <v>4170.8500000000004</v>
@@ -1121,49 +1229,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA55C65-D6E2-4DD7-876E-0CE748C22343}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1182,190 +1294,380 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3*B3</f>
+        <v>1200</v>
+      </c>
       <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4">
+        <v>700</v>
+      </c>
+      <c r="H3" s="4">
+        <v>350</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>K3*L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D20" si="0">C4*B4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <f>J3*K3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4">
-        <v>700</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*B5</f>
+        <v>210</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <f>C6*B6</f>
+        <v>0</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <f>C7*B7</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3">
+        <v>450</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <f>C8*B8</f>
+        <v>0</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <f>C9*B9</f>
+        <v>0</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="4">
+        <f>C10*B10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="6">
-        <f>SUM(G3:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="s">
+        <f>SUM(G3:G9)</f>
+        <v>700</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H3:H9)</f>
+        <v>350</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6">
-        <f>SUM(L3:L3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="6">
+        <f>SUM(M3:M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1000</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="D11" s="4">
+        <f>C11*B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="3">
+        <v>700</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="D12" s="4">
+        <f>C12*B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3">
+        <v>400</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="D13" s="4">
+        <f>C13*B13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3">
+        <v>400</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="D14" s="4">
+        <f>C14*B14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3">
+        <v>500</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="D15" s="4">
+        <f>C15*B15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="14">
+        <v>30</v>
+      </c>
+      <c r="H15" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3">
+        <v>900</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <f>C16*B16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="14">
+        <v>50</v>
+      </c>
+      <c r="H16" s="14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <f>C17*B17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="14">
+        <v>35</v>
+      </c>
+      <c r="H17" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <f>C18*B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>C19*B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="D20" s="4">
+        <f>C20*B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="5">
         <f>SUM(D3:D19)</f>
-        <v>0</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -1588,22 +1890,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1620,29 +1932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Plumo</t>
   </si>
   <si>
-    <t>Kit 10 caixas de Luz Amarelo</t>
-  </si>
-  <si>
     <t>Gastos Cerimonia</t>
   </si>
   <si>
@@ -255,6 +252,51 @@
   </si>
   <si>
     <t>Saquinho de pão</t>
+  </si>
+  <si>
+    <t>Armario cozinha</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>Sofá</t>
+  </si>
+  <si>
+    <t>Marmore Cozinha</t>
+  </si>
+  <si>
+    <t>Soleira Porta</t>
+  </si>
+  <si>
+    <t>Espelho Banheiro</t>
+  </si>
+  <si>
+    <t>kit Banheiro</t>
+  </si>
+  <si>
+    <t>Fios Eletrica</t>
+  </si>
+  <si>
+    <t>Kit 10 caixinhas tomada Amarelo</t>
+  </si>
+  <si>
+    <t>Canos</t>
+  </si>
+  <si>
+    <t>Caixinha Luz</t>
+  </si>
+  <si>
+    <t>Dijuntor</t>
+  </si>
+  <si>
+    <t>Luminaria Cozinha</t>
+  </si>
+  <si>
+    <t>Caixa dijuntor (8 dijuntores)</t>
+  </si>
+  <si>
+    <t>Tomadas e interruptores</t>
   </si>
 </sst>
 </file>
@@ -352,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -370,6 +412,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -695,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +751,7 @@
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -719,22 +762,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -832,7 +875,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L10" si="1">K4*J4</f>
+        <f t="shared" ref="L4:L11" si="1">K4*J4</f>
         <v>310</v>
       </c>
     </row>
@@ -885,7 +928,7 @@
         <v>324</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
@@ -916,7 +959,7 @@
         <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
@@ -947,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>33</v>
@@ -978,7 +1021,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
@@ -1009,7 +1052,7 @@
         <v>1357</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
@@ -1039,10 +1082,21 @@
         <v>1050</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1059,7 +1113,7 @@
         <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1078,6 +1132,9 @@
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1095,6 +1152,9 @@
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1112,6 +1172,9 @@
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1129,6 +1192,9 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -1146,6 +1212,9 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
@@ -1163,12 +1232,15 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1180,39 +1252,150 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="F19" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
+      <c r="F20" s="15"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="15"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="15"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="15"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="15"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="15"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="15"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="15"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="15"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="15"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="15"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="5">
         <f>SUM(D3:D19)</f>
         <v>5475</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G32" s="8">
         <f>SUM(G3:G11)</f>
         <v>845</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="6">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="6">
         <f>SUM(L3:L11)</f>
-        <v>4170.8500000000004</v>
+        <v>4192.8500000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1220,8 +1403,8 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="I32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1255,25 +1438,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1310,7 +1493,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3">
         <v>40</v>
@@ -1323,7 +1506,7 @@
         <v>1200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4">
         <v>700</v>
@@ -1332,7 +1515,7 @@
         <v>350</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -1347,18 +1530,18 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D20" si="0">C4*B4</f>
+        <f t="shared" ref="D4" si="0">C4*B4</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1372,7 +1555,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3">
         <v>6</v>
@@ -1381,7 +1564,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="4">
-        <f>C5*B5</f>
+        <f t="shared" ref="D5:D20" si="1">C5*B5</f>
         <v>210</v>
       </c>
       <c r="G5" s="4"/>
@@ -1391,14 +1574,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
-        <f>C6*B6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="4"/>
@@ -1408,12 +1591,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <f>C7*B7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
@@ -1423,14 +1606,14 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3">
         <v>450</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f>C8*B8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="4"/>
@@ -1440,12 +1623,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f>C9*B9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
@@ -1455,14 +1638,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f>C10*B10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -1476,11 +1659,11 @@
         <f>SUM(H3:H9)</f>
         <v>350</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
@@ -1488,103 +1671,103 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3">
         <v>1000</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f>C11*B11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3">
         <v>700</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <f>C12*B12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3">
         <v>400</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f>C13*B13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3">
         <v>400</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <f>C14*B14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3">
         <v>500</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <f>C15*B15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="14">
+        <v>60</v>
+      </c>
+      <c r="G15" s="11">
         <v>30</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3">
         <v>900</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f>C16*B16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="14">
+        <v>61</v>
+      </c>
+      <c r="G16" s="11">
         <v>50</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="11">
         <v>65</v>
       </c>
     </row>
@@ -1592,16 +1775,16 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <f>C17*B17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="14">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11">
         <v>35</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="11">
         <v>50</v>
       </c>
     </row>
@@ -1609,7 +1792,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f>C18*B18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1617,7 +1800,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <f>C19*B19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1625,16 +1808,16 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <f>C20*B20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="5">
         <f>SUM(D3:D19)</f>
         <v>1410</v>
@@ -1659,15 +1842,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -1890,6 +2064,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
@@ -1908,14 +2091,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1932,4 +2107,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C910C-A51B-4EC2-B623-883036E8E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
     <sheet name="Cerimonia Casamento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,9 +240,6 @@
     <t>Pratos Bolo</t>
   </si>
   <si>
-    <t>Copos (de 100)</t>
-  </si>
-  <si>
     <t>Pratos Batata e Salgados</t>
   </si>
   <si>
@@ -297,12 +295,15 @@
   </si>
   <si>
     <t>Tomadas e interruptores</t>
+  </si>
+  <si>
+    <t>Copos (de 100) copazza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -361,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +381,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -411,7 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,7 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -737,10 +747,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1095,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -1133,7 +1143,7 @@
         <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1153,7 +1163,7 @@
         <v>299</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1173,7 +1183,7 @@
         <v>560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1193,7 +1203,7 @@
         <v>600</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1213,7 +1223,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1233,14 +1243,14 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1252,77 +1262,71 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>76</v>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="F20" s="15"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="F21" s="15"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="F22" s="15"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="F23" s="15"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="15"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="F25" s="15"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
@@ -1330,7 +1334,6 @@
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="F26" s="15"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
@@ -1338,7 +1341,6 @@
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="F27" s="15"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
@@ -1346,7 +1348,6 @@
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="F28" s="15"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
@@ -1354,7 +1355,6 @@
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="F29" s="15"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
@@ -1362,7 +1362,6 @@
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="F30" s="15"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
@@ -1412,11 +1411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1670,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>1000</v>
@@ -1684,7 +1683,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3">
         <v>700</v>
@@ -1696,10 +1695,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16">
         <v>400</v>
       </c>
       <c r="C13" s="4"/>
@@ -1712,10 +1711,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="16">
         <v>400</v>
       </c>
       <c r="C14" s="4"/>
@@ -1729,7 +1728,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>500</v>
@@ -1751,7 +1750,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3">
         <v>900</v>
@@ -1836,9 +1835,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2065,27 +2067,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2110,9 +2100,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C910C-A51B-4EC2-B623-883036E8E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E5C431-E34B-4462-860A-3AAE9BDE5BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Guardanapo Pcte</t>
   </si>
   <si>
-    <t>Saquinho de pão</t>
-  </si>
-  <si>
     <t>Armario cozinha</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Copos (de 100) copazza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -420,6 +420,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,10 +433,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -750,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,22 +776,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1095,7 +1099,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -1119,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D19" si="2">B12*C12</f>
+        <f t="shared" ref="D12:D31" si="2">B12*C12</f>
         <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1143,7 +1147,7 @@
         <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1163,7 +1167,7 @@
         <v>299</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1183,7 +1187,7 @@
         <v>560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1203,7 +1207,7 @@
         <v>600</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1223,7 +1227,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1243,14 +1247,14 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1263,70 +1267,92 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>86.6</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>86.6</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
@@ -1371,11 +1397,11 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="5">
         <f>SUM(D3:D19)</f>
         <v>5475</v>
@@ -1387,11 +1413,11 @@
         <f>SUM(G3:G11)</f>
         <v>845</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="6">
         <f>SUM(L3:L11)</f>
         <v>4192.8500000000004</v>
@@ -1414,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,25 +1463,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1491,18 +1517,18 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="17">
         <v>40</v>
       </c>
-      <c r="C3" s="4">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="18">
+        <v>27</v>
+      </c>
+      <c r="D3" s="18">
         <f>C3*B3</f>
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
@@ -1615,6 +1641,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="L8" s="4"/>
@@ -1658,21 +1687,21 @@
         <f>SUM(H3:H9)</f>
         <v>350</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="13">
         <v>1000</v>
       </c>
       <c r="C11" s="4"/>
@@ -1682,10 +1711,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="13">
         <v>700</v>
       </c>
       <c r="C12" s="4"/>
@@ -1695,10 +1724,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>400</v>
       </c>
       <c r="C13" s="4"/>
@@ -1711,10 +1740,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>400</v>
       </c>
       <c r="C14" s="4"/>
@@ -1727,11 +1756,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="3">
-        <v>500</v>
+      <c r="B15" s="13">
+        <v>1000</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -1750,11 +1779,9 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="3">
-        <v>900</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
@@ -1812,14 +1839,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5">
         <f>SUM(D3:D19)</f>
-        <v>1410</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -1835,12 +1862,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2067,15 +2091,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2100,18 +2136,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E5C431-E34B-4462-860A-3AAE9BDE5BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
     <sheet name="Cerimonia Casamento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,15 +239,6 @@
     <t>Pratos Bolo</t>
   </si>
   <si>
-    <t>Pratos Batata e Salgados</t>
-  </si>
-  <si>
-    <t>Garfos Bolo</t>
-  </si>
-  <si>
-    <t>Guardanapo Pcte</t>
-  </si>
-  <si>
     <t>Armario cozinha</t>
   </si>
   <si>
@@ -298,12 +288,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pratos Batata e Salgados (kit 500)</t>
+  </si>
+  <si>
+    <t>Guardanapo Pcte (kit 1000)</t>
+  </si>
+  <si>
+    <t>Garfos Bolo (kit 500)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -362,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +380,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -401,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -420,10 +413,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,10 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -751,10 +740,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1099,7 +1088,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -1123,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D31" si="2">B12*C12</f>
+        <f t="shared" ref="D12:D25" si="2">B12*C12</f>
         <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1147,7 +1136,7 @@
         <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1167,7 +1156,7 @@
         <v>299</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1187,7 +1176,7 @@
         <v>560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1207,7 +1196,7 @@
         <v>600</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1227,7 +1216,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1247,14 +1236,14 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1267,14 +1256,14 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1287,7 +1276,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1300,7 +1289,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1317,7 +1306,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1330,7 +1319,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -1345,7 +1334,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1437,11 +1426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,13 +1509,13 @@
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <v>40</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <v>27</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <f>C3*B3</f>
         <v>1080</v>
       </c>
@@ -1642,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1698,23 +1687,25 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>112</v>
+      </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3">
         <v>700</v>
       </c>
       <c r="C12" s="4"/>
@@ -1724,26 +1715,28 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="13">
-        <v>400</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44</v>
+      </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="3">
         <v>400</v>
       </c>
       <c r="C14" s="4"/>
@@ -1756,16 +1749,18 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43</v>
+      </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
@@ -1779,7 +1774,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1846,7 +1841,7 @@
       <c r="C21" s="15"/>
       <c r="D21" s="5">
         <f>SUM(D3:D19)</f>
-        <v>1290</v>
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -1868,6 +1863,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -2090,15 +2094,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
@@ -2117,6 +2112,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2133,12 +2136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alisson</author>
+  </authors>
+  <commentList>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alisson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13 Padrinhos
+  4 Pessoas que ajudaram(Ricardo, Leticia, Elizani, Dono do Sitio)
+Suellen:
+24 Ao todo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -297,6 +334,12 @@
   </si>
   <si>
     <t>Garfos Bolo (kit 500)</t>
+  </si>
+  <si>
+    <t>Lembrancinha Convidados</t>
+  </si>
+  <si>
+    <t>Lembrancinha Padrinhos</t>
   </si>
 </sst>
 </file>
@@ -306,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +403,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -381,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -389,12 +453,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -406,8 +508,6 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,8 +526,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -743,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +875,7 @@
     <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
@@ -765,22 +885,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -933,6 +1053,9 @@
       <c r="F6" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G6" s="4">
+        <v>365</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
@@ -964,6 +1087,7 @@
       <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
@@ -995,6 +1119,7 @@
       <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G8" s="4"/>
       <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1026,6 +1151,7 @@
       <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="G9" s="4"/>
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1057,6 +1183,7 @@
       <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G10" s="4"/>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1087,6 +1214,7 @@
       <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G11" s="4"/>
       <c r="I11" s="1" t="s">
         <v>77</v>
       </c>
@@ -1118,6 +1246,7 @@
       <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1138,6 +1267,7 @@
       <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1158,6 +1288,7 @@
       <c r="F14" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1178,6 +1309,7 @@
       <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1198,6 +1330,7 @@
       <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -1218,6 +1351,7 @@
       <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
@@ -1238,6 +1372,7 @@
       <c r="F18" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="G18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
@@ -1258,6 +1393,7 @@
       <c r="F19" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="G19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
@@ -1271,6 +1407,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G20" s="15"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
@@ -1380,34 +1517,36 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="5">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18">
         <f>SUM(D3:D19)</f>
         <v>5475</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="21">
         <f>SUM(G3:G11)</f>
-        <v>845</v>
-      </c>
-      <c r="I32" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="6">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23">
         <f>SUM(L3:L11)</f>
         <v>4192.8500000000004</v>
       </c>
@@ -1426,11 +1565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,25 +1591,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1506,38 +1645,38 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>40</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>27</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <f>C3*B3</f>
         <v>1080</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="11">
         <v>700</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="11">
         <v>350</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
         <f>K3*L3</f>
         <v>0</v>
       </c>
@@ -1554,16 +1693,16 @@
         <f t="shared" ref="D4" si="0">C4*B4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1665,7 +1804,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="6">
@@ -1676,27 +1815,27 @@
         <f>SUM(H3:H9)</f>
         <v>350</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>112</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
@@ -1715,16 +1854,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="11">
         <v>44</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -1749,67 +1888,79 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="11">
         <v>43</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>30</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="10">
+        <v>150</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <f>B16*C16</f>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>50</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A17" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D17" s="11">
+        <f>B17*C17</f>
+        <v>127.49999999999999</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>35</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -1834,14 +1985,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="5">
         <f>SUM(D3:D19)</f>
-        <v>1489</v>
+        <v>1766.5</v>
       </c>
     </row>
   </sheetData>
@@ -1852,26 +2003,16 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="J10:L10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
+    <hyperlink ref="A16" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -2094,32 +2235,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2136,4 +2267,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Alisson</author>
   </authors>
   <commentList>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -327,12 +327,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pratos Batata e Salgados (kit 500)</t>
-  </si>
-  <si>
-    <t>Guardanapo Pcte (kit 1000)</t>
-  </si>
-  <si>
     <t>Garfos Bolo (kit 500)</t>
   </si>
   <si>
@@ -340,6 +334,30 @@
   </si>
   <si>
     <t>Lembrancinha Padrinhos</t>
+  </si>
+  <si>
+    <t>Pratos Batata (kit 500)</t>
+  </si>
+  <si>
+    <t>Saquinho pão Pcte (kit 1000)</t>
+  </si>
+  <si>
+    <t>Mesas/Cadeiras Aluguel</t>
+  </si>
+  <si>
+    <t>Terno Noivo</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Guardanapo</t>
+  </si>
+  <si>
+    <t>Decoração</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
   </si>
 </sst>
 </file>
@@ -517,8 +535,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -526,25 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -863,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,22 +903,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1407,7 +1425,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="12"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
@@ -1523,30 +1541,30 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="13">
         <f>SUM(D3:D19)</f>
         <v>5475</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="16">
         <f>SUM(G3:G11)</f>
         <v>1210</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="22" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="17">
         <f>SUM(L3:L11)</f>
         <v>4192.8500000000004</v>
       </c>
@@ -1566,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,25 +1609,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1693,6 +1711,9 @@
         <f t="shared" ref="D4" si="0">C4*B4</f>
         <v>0</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="J4" s="8" t="s">
         <v>42</v>
       </c>
@@ -1717,8 +1738,11 @@
         <v>35</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D20" si="1">C5*B5</f>
+        <f t="shared" ref="D5:D21" si="1">C5*B5</f>
         <v>210</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1815,11 +1839,11 @@
         <f>SUM(H3:H9)</f>
         <v>350</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
@@ -1827,7 +1851,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -1854,122 +1878,131 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>44</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>400</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="10">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="11">
         <v>43</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>30</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="10">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="10">
         <v>150</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <f>B16*C16</f>
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="9">
-        <v>50</v>
-      </c>
-      <c r="H16" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="10">
-        <v>50</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2.5499999999999998</v>
       </c>
       <c r="D17" s="11">
         <f>B17*C17</f>
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="9">
+        <v>50</v>
+      </c>
+      <c r="H17" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="10">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D18" s="11">
+        <f>B18*C18</f>
         <v>127.49999999999999</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>35</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
+      <c r="A19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="3">
+        <v>20</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
@@ -1977,22 +2010,60 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>350</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="5">
-        <f>SUM(D3:D19)</f>
-        <v>1766.5</v>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="5">
+        <f>SUM(D3:D20)</f>
+        <v>2116.5</v>
       </c>
     </row>
   </sheetData>
@@ -2000,12 +2071,12 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="J10:L10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
-    <hyperlink ref="A16" r:id="rId2"/>
+    <hyperlink ref="A18" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
+    <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId3"/>
@@ -2013,6 +2084,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -2235,22 +2321,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,29 +2363,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAED70-D0AC-4DB4-AA79-5BA0683EF945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
     <sheet name="Cerimonia Casamento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alisson</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -878,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1583,11 +1584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,14 +1668,14 @@
         <v>64</v>
       </c>
       <c r="B3" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11">
         <v>27</v>
       </c>
       <c r="D3" s="11">
         <f>C3*B3</f>
-        <v>1080</v>
+        <v>1350</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>43</v>
@@ -1700,14 +1701,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
         <f t="shared" ref="D4" si="0">C4*B4</f>
         <v>0</v>
       </c>
@@ -1741,11 +1744,15 @@
         <f t="shared" ref="D5:D21" si="1">C5*B5</f>
         <v>210</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
@@ -1767,12 +1774,14 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1782,14 +1791,16 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>450</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1802,12 +1813,14 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1817,14 +1830,16 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2025,12 +2040,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2063,7 +2080,7 @@
       <c r="C26" s="24"/>
       <c r="D26" s="5">
         <f>SUM(D3:D20)</f>
-        <v>2116.5</v>
+        <v>2386.5</v>
       </c>
     </row>
   </sheetData>
@@ -2075,8 +2092,8 @@
     <mergeCell ref="J10:L10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
-    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A18" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId3"/>
@@ -2084,21 +2101,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -2321,32 +2323,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2363,4 +2355,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAED70-D0AC-4DB4-AA79-5BA0683EF945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013F663-2101-49E2-BA0B-2D1BD8DE2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Marmore Cozinha</t>
   </si>
   <si>
-    <t>Soleira Porta</t>
-  </si>
-  <si>
     <t>Espelho Banheiro</t>
   </si>
   <si>
@@ -359,6 +356,18 @@
   </si>
   <si>
     <t>Cozinha</t>
+  </si>
+  <si>
+    <t>Salgados</t>
+  </si>
+  <si>
+    <t>Total contrução e itens</t>
+  </si>
+  <si>
+    <t>Joli - Pisos casa toda, ceramica banheiro, pisos e ceramica banheiro, ceramica decorada meia parede, argamassa, ralo banheiro, luva, cano T, 3 soleiras, ventilador</t>
+  </si>
+  <si>
+    <t>Total (com os ganhos)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -509,13 +518,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -537,7 +604,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -552,9 +618,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -564,6 +627,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -880,18 +959,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
@@ -904,22 +983,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1017,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L11" si="1">K4*J4</f>
+        <f t="shared" ref="L4:L13" si="1">K4*J4</f>
         <v>310</v>
       </c>
     </row>
@@ -1231,11 +1310,11 @@
         <v>1050</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -1259,15 +1338,26 @@
         <v>26</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D25" si="2">B12*C12</f>
+        <f t="shared" ref="D12:D26" si="2">B12*C12</f>
         <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1284,11 +1374,22 @@
         <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>330</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1305,9 +1406,15 @@
         <v>299</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="4"/>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1326,7 +1433,7 @@
         <v>560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4"/>
       <c r="K15" s="4"/>
@@ -1346,9 +1453,6 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1367,9 +1471,6 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1388,16 +1489,13 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1409,16 +1507,13 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1432,7 +1527,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1445,7 +1540,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1462,7 +1557,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1475,7 +1570,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -1490,7 +1585,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1501,10 +1596,20 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="25">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2528</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>2528</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
@@ -1542,32 +1647,52 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="13">
-        <f>SUM(D3:D19)</f>
-        <v>5475</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27">
+        <f>SUM(D3:D31)</f>
+        <v>8089.6</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <f>SUM(G3:G11)</f>
         <v>1210</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="23" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="17">
-        <f>SUM(L3:L11)</f>
-        <v>4192.8500000000004</v>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="16">
+        <f>SUM(L3:L13)</f>
+        <v>4622.8500000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="33">
+        <f>D32+G32</f>
+        <v>9299.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31">
+        <f>D32+G32+L32</f>
+        <v>13922.45</v>
       </c>
     </row>
   </sheetData>
@@ -1587,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,25 +1735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1715,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>42</v>
@@ -1745,7 +1870,7 @@
         <v>210</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -1768,8 +1893,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1350</v>
+      </c>
+      <c r="H6" s="4">
+        <v>300</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
@@ -1785,8 +1917,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4">
+        <v>350</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
@@ -1805,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1848,17 +1987,17 @@
       </c>
       <c r="G10" s="6">
         <f>SUM(G3:G9)</f>
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="6">
         <f>SUM(H3:H9)</f>
-        <v>350</v>
-      </c>
-      <c r="J10" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
@@ -1866,7 +2005,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -1881,7 +2020,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3">
         <v>700</v>
@@ -1894,7 +2033,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -1907,7 +2046,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -1941,7 +2080,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -1964,8 +2103,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>85</v>
+      <c r="A17" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="B17" s="10">
         <v>150</v>
@@ -1988,8 +2127,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>86</v>
+      <c r="A18" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="10">
         <v>50</v>
@@ -2012,8 +2151,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>89</v>
+      <c r="A19" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="3">
         <v>20</v>
@@ -2026,7 +2165,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2041,7 +2180,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11">
@@ -2073,11 +2212,11 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="5">
         <f>SUM(D3:D20)</f>
         <v>2386.5</v>
@@ -2324,18 +2463,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2358,14 +2497,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2380,4 +2511,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013F663-2101-49E2-BA0B-2D1BD8DE2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7C4F5-75D0-4AF9-AF4C-FC2F305AF7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Porta Banheiro</t>
   </si>
   <si>
-    <t>Pia Cozinha</t>
-  </si>
-  <si>
     <t>Lavabo banheiro</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
   </si>
   <si>
     <t>Marmore Cozinha</t>
-  </si>
-  <si>
-    <t>Espelho Banheiro</t>
   </si>
   <si>
     <t>kit Banheiro</t>
@@ -582,7 +576,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -612,10 +606,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,22 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -961,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,22 +976,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1279,7 +1272,7 @@
         <v>1357</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="1" t="s">
@@ -1310,11 +1303,11 @@
         <v>1050</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -1342,11 +1335,11 @@
         <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1374,11 +1367,11 @@
         <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1405,12 +1398,9 @@
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G14" s="4"/>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1432,9 +1422,6 @@
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1495,7 +1482,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1513,13 +1500,17 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>428</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G20" s="12"/>
       <c r="K20" s="4"/>
@@ -1527,20 +1518,24 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>285</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1557,7 +1552,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1570,7 +1565,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -1585,7 +1580,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1597,10 +1592,10 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="25">
+      <c r="A26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="20">
         <v>1</v>
       </c>
       <c r="C26" s="4">
@@ -1647,14 +1642,14 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="21">
         <f>SUM(D3:D31)</f>
-        <v>8089.6</v>
+        <v>8802.6</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="14" t="s">
@@ -1665,34 +1660,33 @@
         <v>1210</v>
       </c>
       <c r="H32" s="13"/>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="16">
         <f>SUM(L3:L13)</f>
         <v>4622.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="26">
+        <f>D32+G32</f>
+        <v>10012.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="33">
-        <f>D32+G32</f>
-        <v>9299.6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31">
+      <c r="C34" s="23"/>
+      <c r="D34" s="24">
         <f>D32+G32+L32</f>
-        <v>13922.45</v>
+        <v>14635.45</v>
       </c>
     </row>
   </sheetData>
@@ -1735,25 +1729,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1790,7 +1784,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10">
         <v>50</v>
@@ -1840,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>42</v>
@@ -1857,7 +1851,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3">
         <v>6</v>
@@ -1870,7 +1864,7 @@
         <v>210</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -1894,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" s="4">
         <v>1350</v>
@@ -1918,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4">
         <v>350</v>
@@ -1944,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1970,7 +1964,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
@@ -1993,11 +1987,11 @@
         <f>SUM(H3:H9)</f>
         <v>750</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
@@ -2005,7 +1999,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -2020,7 +2014,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3">
         <v>700</v>
@@ -2033,7 +2027,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -2046,7 +2040,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -2064,7 +2058,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3">
         <v>400</v>
@@ -2080,7 +2074,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -2093,7 +2087,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="9">
         <v>30</v>
@@ -2104,7 +2098,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="10">
         <v>150</v>
@@ -2117,7 +2111,7 @@
         <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="9">
         <v>50</v>
@@ -2128,7 +2122,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="10">
         <v>50</v>
@@ -2152,7 +2146,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3">
         <v>20</v>
@@ -2165,7 +2159,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2180,7 +2174,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11">
@@ -2212,11 +2206,11 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5">
         <f>SUM(D3:D20)</f>
         <v>2386.5</v>
@@ -2463,18 +2457,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2497,6 +2491,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2511,12 +2513,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7C4F5-75D0-4AF9-AF4C-FC2F305AF7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B23A8-9207-4D32-BA5C-1EC3AE7AD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casa" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Sofá</t>
-  </si>
-  <si>
-    <t>Marmore Cozinha</t>
   </si>
   <si>
     <t>kit Banheiro</t>
@@ -602,9 +599,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,6 +629,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -954,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,22 +973,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1178,7 +1175,9 @@
       <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>350</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1210,7 +1209,9 @@
       <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>350</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1242,7 +1243,9 @@
       <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>160</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1272,9 +1275,11 @@
         <v>1357</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G10" s="4">
+        <v>150</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1302,12 +1307,8 @@
       <c r="D11" s="4">
         <v>1050</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4"/>
       <c r="I11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -1334,10 +1335,6 @@
         <f t="shared" ref="D12:D26" si="2">B12*C12</f>
         <v>338</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="4"/>
       <c r="I12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1366,9 +1363,6 @@
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G13" s="4"/>
       <c r="I13" s="1" t="s">
         <v>57</v>
@@ -1423,6 +1417,12 @@
         <v>560</v>
       </c>
       <c r="G15" s="4"/>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1441,6 +1441,12 @@
         <v>600</v>
       </c>
       <c r="G16" s="4"/>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1518,7 +1524,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -1535,7 +1541,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1552,7 +1558,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1592,10 +1598,10 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="20">
+      <c r="A26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="19">
         <v>1</v>
       </c>
       <c r="C26" s="4">
@@ -1642,12 +1648,12 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="21">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="20">
         <f>SUM(D3:D31)</f>
         <v>8802.6</v>
       </c>
@@ -1657,36 +1663,36 @@
       </c>
       <c r="G32" s="15">
         <f>SUM(G3:G11)</f>
-        <v>1210</v>
+        <v>2220</v>
       </c>
       <c r="H32" s="13"/>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="16">
         <f>SUM(L3:L13)</f>
         <v>4622.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="26">
+      <c r="B33" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="25">
         <f>D32+G32</f>
-        <v>10012.6</v>
+        <v>11022.6</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24">
+      <c r="B34" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23">
         <f>D32+G32+L32</f>
-        <v>14635.45</v>
+        <v>15645.45</v>
       </c>
     </row>
   </sheetData>
@@ -1706,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,25 +1735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1803,7 +1809,7 @@
         <v>700</v>
       </c>
       <c r="H3" s="11">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>40</v>
@@ -1833,8 +1839,14 @@
         <f t="shared" ref="D4" si="0">C4*B4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
+      <c r="F4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1350</v>
+      </c>
+      <c r="H4" s="11">
+        <v>600</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>42</v>
@@ -1850,54 +1862,69 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="11">
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:D21" si="1">C5*B5</f>
         <v>210</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G5" s="11">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1650</v>
+      </c>
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1350</v>
-      </c>
-      <c r="H6" s="4">
-        <v>300</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+        <v>1650</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1911,15 +1938,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="4">
-        <v>350</v>
-      </c>
-      <c r="H7" s="4">
-        <v>100</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
@@ -1938,10 +1958,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(G3:G7)</f>
+        <v>2400</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(H3:H7)</f>
+        <v>1650</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
@@ -1957,8 +1986,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
@@ -1976,22 +2003,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(G3:G9)</f>
-        <v>2400</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H3:H9)</f>
-        <v>750</v>
-      </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
@@ -1999,7 +2015,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -2013,34 +2029,40 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="10">
         <v>700</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -2052,29 +2074,41 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="10">
         <v>400</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9">
+        <v>50</v>
+      </c>
+      <c r="H15" s="9">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -2087,18 +2121,18 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G16" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H16" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="B17" s="10">
         <v>150</v>
@@ -2110,19 +2144,10 @@
         <f>B17*C17</f>
         <v>150</v>
       </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="9">
-        <v>50</v>
-      </c>
-      <c r="H17" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>83</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="B18" s="10">
         <v>50</v>
@@ -2134,47 +2159,40 @@
         <f>B18*C18</f>
         <v>127.49999999999999</v>
       </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="9">
-        <v>35</v>
-      </c>
-      <c r="H18" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="10">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11">
+        <v>300</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="3">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
         <v>350</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11">
@@ -2185,35 +2203,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="5">
         <f>SUM(D3:D20)</f>
-        <v>2386.5</v>
+        <v>10036.5</v>
       </c>
     </row>
   </sheetData>
@@ -2457,18 +2475,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2491,14 +2509,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2513,4 +2523,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/proj/gastosCasamento.xlsx
+++ b/proj/gastosCasamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B23A8-9207-4D32-BA5C-1EC3AE7AD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0196F-872F-4301-B8EC-9C20B7847747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,6 +612,9 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,9 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -973,22 +973,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1648,11 +1648,11 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="20">
         <f>SUM(D3:D31)</f>
         <v>8802.6</v>
@@ -1666,11 +1666,11 @@
         <v>2220</v>
       </c>
       <c r="H32" s="13"/>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="16">
         <f>SUM(L3:L13)</f>
         <v>4622.8500000000004</v>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,25 +1735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1846,7 +1846,7 @@
         <v>1350</v>
       </c>
       <c r="H4" s="11">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>42</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="H8" s="6">
         <f>SUM(H3:H7)</f>
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2003,11 +2003,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="6">
         <f>SUM(M3:M3)</f>
         <v>0</v>
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="10">
@@ -2224,11 +2224,11 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5">
         <f>SUM(D3:D20)</f>
         <v>10036.5</v>
@@ -2475,18 +2475,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2509,6 +2509,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2523,12 +2531,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>